--- a/project/OtherAssets/Excle/A_Default/职员.xlsx
+++ b/project/OtherAssets/Excle/A_Default/职员.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\project\OtherAssets\Excle\A_Default\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015CD061-D60A-4E56-9805-45474BDBE677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2655" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
     <sheet name="Staff_Level" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>China</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>China:</t>
@@ -42,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>China:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>China:</t>
@@ -92,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,13 +90,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>需要解锁建筑的参数</t>
@@ -134,425 +121,14 @@
     <t>图标名字</t>
   </si>
   <si>
-    <t>职位名称（前台 厨师）</t>
-  </si>
-  <si>
-    <t>特殊技能说明</t>
-  </si>
-  <si>
-    <t>技能类型</t>
-  </si>
-  <si>
-    <t>资源链接</t>
-  </si>
-  <si>
-    <t>解锁条件文字说明{可以传参数}</t>
-  </si>
-  <si>
-    <t>解锁参数</t>
-  </si>
-  <si>
-    <t>ID_i</t>
-  </si>
-  <si>
-    <t>bz_s</t>
-  </si>
-  <si>
-    <t>Name_iam</t>
-  </si>
-  <si>
-    <t>IconName_s</t>
-  </si>
-  <si>
-    <t>ObjType_i</t>
-  </si>
-  <si>
-    <t>ObjName_iam</t>
-  </si>
-  <si>
-    <t>SpecialSkill_iam</t>
-  </si>
-  <si>
-    <t>SkillType_i</t>
-  </si>
-  <si>
-    <t>Path_s</t>
-  </si>
-  <si>
-    <t>UnlockDes_iam</t>
-  </si>
-  <si>
-    <t>UnlockParam_i</t>
-  </si>
-  <si>
-    <t>前台</t>
-  </si>
-  <si>
-    <t>12_3</t>
-  </si>
-  <si>
-    <t>12_1</t>
-  </si>
-  <si>
-    <t>12_2</t>
-  </si>
-  <si>
-    <t>reception</t>
-  </si>
-  <si>
-    <t>11_16</t>
-  </si>
-  <si>
-    <t>服务员</t>
-  </si>
-  <si>
-    <t>12_6</t>
-  </si>
-  <si>
-    <t>12_4</t>
-  </si>
-  <si>
-    <t>12_5</t>
-  </si>
-  <si>
-    <t>waiter</t>
-  </si>
-  <si>
-    <t>厨师1</t>
-  </si>
-  <si>
-    <t>12_19</t>
-  </si>
-  <si>
-    <t>12_16</t>
-  </si>
-  <si>
-    <t>12_17</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>厨师2</t>
-  </si>
-  <si>
-    <t>12_20</t>
-  </si>
-  <si>
-    <t>12_21</t>
-  </si>
-  <si>
-    <t>蛋糕柜服务员</t>
-  </si>
-  <si>
-    <t>12_15</t>
-  </si>
-  <si>
-    <t>12_13</t>
-  </si>
-  <si>
-    <t>12_14</t>
-  </si>
-  <si>
-    <t>果汁机服务员</t>
-  </si>
-  <si>
-    <t>12_12</t>
-  </si>
-  <si>
-    <t>12_10</t>
-  </si>
-  <si>
-    <t>12_11</t>
-  </si>
-  <si>
-    <t>吧台调酒师</t>
-  </si>
-  <si>
-    <t>12_9</t>
-  </si>
-  <si>
-    <t>12_7</t>
-  </si>
-  <si>
-    <t>12_8</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>职员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>职员名称</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作类型</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特殊技能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>翻译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>技能参数（多少秒放一次  比如每60秒招募4个顾客就是60_2, 一个参数就传一个）</t>
-  </si>
-  <si>
-    <t>雇佣价格（第一级默认为雇佣价格)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资历时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第一级默认为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大等级为-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Level_i</t>
-  </si>
-  <si>
-    <t>SkllParam_iam</t>
-  </si>
-  <si>
-    <t>EmpPrice_i</t>
-  </si>
-  <si>
-    <t>QuaTime_i</t>
-  </si>
-  <si>
-    <t>60_2</t>
-  </si>
-  <si>
-    <t>60_4</t>
-  </si>
-  <si>
-    <t>60_5</t>
-  </si>
-  <si>
-    <t>60_6</t>
-  </si>
-  <si>
-    <t>60_7</t>
-  </si>
-  <si>
-    <t>1_200</t>
-  </si>
-  <si>
-    <t>1_201</t>
-  </si>
-  <si>
-    <t>1_202</t>
-  </si>
-  <si>
-    <t>1_203</t>
-  </si>
-  <si>
-    <t>1_204</t>
-  </si>
-  <si>
-    <t>1_205</t>
-  </si>
-  <si>
-    <t>1_206</t>
-  </si>
-  <si>
-    <t>1_207</t>
-  </si>
-  <si>
-    <t>1_208</t>
-  </si>
-  <si>
-    <t>厨师3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>职位类型（</t>
     </r>
     <r>
@@ -561,7 +137,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,20 +147,433 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位名称（前台 厨师）</t>
+  </si>
+  <si>
+    <t>特殊技能说明</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>资源链接</t>
+  </si>
+  <si>
+    <t>解锁条件文字说明{可以传参数}</t>
+  </si>
+  <si>
+    <t>解锁参数</t>
+  </si>
+  <si>
+    <t>ID_i</t>
+  </si>
+  <si>
+    <t>bz_s</t>
+  </si>
+  <si>
+    <t>Name_iam</t>
+  </si>
+  <si>
+    <t>IconName_s</t>
+  </si>
+  <si>
+    <t>ObjType_i</t>
+  </si>
+  <si>
+    <t>ObjName_iam</t>
+  </si>
+  <si>
+    <t>SpecialSkill_iam</t>
+  </si>
+  <si>
+    <t>SkillType_i</t>
+  </si>
+  <si>
+    <t>Path_s</t>
+  </si>
+  <si>
+    <t>UnlockDes_iam</t>
+  </si>
+  <si>
+    <t>UnlockParam_i</t>
+  </si>
+  <si>
+    <t>前台</t>
+  </si>
+  <si>
+    <t>12_3</t>
+  </si>
+  <si>
+    <t>12_1</t>
+  </si>
+  <si>
+    <t>12_2</t>
+  </si>
+  <si>
+    <t>reception</t>
+  </si>
+  <si>
+    <t>11_16</t>
+  </si>
+  <si>
+    <t>服务员</t>
+  </si>
+  <si>
+    <t>12_6</t>
+  </si>
+  <si>
+    <t>12_4</t>
+  </si>
+  <si>
+    <t>12_5</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>厨师1</t>
+  </si>
+  <si>
+    <t>12_19</t>
+  </si>
+  <si>
+    <t>12_16</t>
+  </si>
+  <si>
+    <t>12_17</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>厨师2</t>
+  </si>
+  <si>
+    <t>12_20</t>
+  </si>
+  <si>
+    <t>厨师3</t>
+  </si>
+  <si>
+    <t>12_21</t>
+  </si>
+  <si>
+    <t>蛋糕柜服务员</t>
+  </si>
+  <si>
+    <t>12_15</t>
+  </si>
+  <si>
+    <t>12_13</t>
+  </si>
+  <si>
+    <t>12_14</t>
+  </si>
+  <si>
+    <t>果汁机服务员</t>
+  </si>
+  <si>
+    <t>12_12</t>
+  </si>
+  <si>
+    <t>12_10</t>
+  </si>
+  <si>
+    <t>12_11</t>
+  </si>
+  <si>
+    <t>吧台调酒师</t>
+  </si>
+  <si>
+    <t>12_9</t>
+  </si>
+  <si>
+    <t>12_7</t>
+  </si>
+  <si>
+    <t>12_8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职员名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特殊技能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>技能参数（多少秒放一次  比如每60秒招募4个顾客就是60_2, 一个参数就传一个）</t>
+  </si>
+  <si>
+    <t>雇佣价格（第一级默认为雇佣价格)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资历时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一级默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大等级为-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Level_i</t>
+  </si>
+  <si>
+    <t>SkllParam_iam</t>
+  </si>
+  <si>
+    <t>EmpPrice_i</t>
+  </si>
+  <si>
+    <t>QuaTime_i</t>
+  </si>
+  <si>
+    <t>60_2</t>
+  </si>
+  <si>
+    <t>60_4</t>
+  </si>
+  <si>
+    <t>60_5</t>
+  </si>
+  <si>
+    <t>60_6</t>
+  </si>
+  <si>
+    <t>60_7</t>
+  </si>
+  <si>
+    <t>1_200</t>
+  </si>
+  <si>
+    <t>1_201</t>
+  </si>
+  <si>
+    <t>1_202</t>
+  </si>
+  <si>
+    <t>1_203</t>
+  </si>
+  <si>
+    <t>1_204</t>
+  </si>
+  <si>
+    <t>1_205</t>
+  </si>
+  <si>
+    <t>1_206</t>
+  </si>
+  <si>
+    <t>1_207</t>
+  </si>
+  <si>
+    <t>1_208</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,19 +585,17 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -617,27 +603,150 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -645,20 +754,216 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -666,9 +971,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -711,21 +1258,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1012,35 +1603,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.6296296296296" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.1296296296296" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.6296296296296" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.8796296296296" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.8796296296296" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.8796296296296" style="8" customWidth="1"/>
     <col min="10" max="10" width="33" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.1296296296296" style="8" customWidth="1"/>
     <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="23.25" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,71 +1645,71 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="I2" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:11">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -1127,33 +1718,33 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>25</v>
+      <c r="I3" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="8">
         <v>12001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.6" spans="1:11">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -1162,33 +1753,33 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>31</v>
+      <c r="I4" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="8">
         <v>12002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.6" spans="1:11">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -1197,33 +1788,33 @@
         <v>2</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>36</v>
+      <c r="I5" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="8">
         <v>12003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.6" spans="1:11">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8">
         <v>4</v>
@@ -1232,33 +1823,33 @@
         <v>2</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>36</v>
+      <c r="I6" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="8">
         <v>12004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.6" spans="1:11">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8">
         <v>5</v>
@@ -1267,33 +1858,33 @@
         <v>2</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="8">
         <v>2</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>36</v>
+      <c r="I7" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="8">
         <v>12005</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.6" spans="1:11">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="8">
         <v>6</v>
@@ -1302,33 +1893,33 @@
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>31</v>
+      <c r="I8" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="8">
         <v>12006</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.6" spans="1:11">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8">
         <v>7</v>
@@ -1337,33 +1928,33 @@
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>31</v>
+      <c r="I9" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" s="8">
         <v>12007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8">
         <v>8</v>
@@ -1372,451 +1963,452 @@
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>31</v>
+      <c r="I10" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" s="8">
         <v>12008</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
-      <c r="C11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="E21" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="E22" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+    <row r="23" ht="28.8" spans="1:9">
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="E23" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="16"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="16"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="40.375" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="40.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="37.3796296296296" customWidth="1"/>
     <col min="6" max="6" width="58.75" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="27.6296296296296" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.8" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:5">
       <c r="A3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="7">
         <v>50</v>
@@ -1825,15 +2417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.6" spans="1:5">
       <c r="A4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
         <f>D3*6</f>
@@ -1843,15 +2435,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.6" spans="1:5">
       <c r="A5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D7" si="0">D4*5</f>
@@ -1861,15 +2453,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.6" spans="1:5">
       <c r="A6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -1879,15 +2471,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.6" spans="1:5">
       <c r="A7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -1897,15 +2489,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.6" spans="1:5">
       <c r="A8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7">
         <v>50</v>
@@ -1914,15 +2506,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.6" spans="1:5">
       <c r="A9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="7">
         <f>D8*6</f>
@@ -1932,15 +2524,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.6" spans="1:5">
       <c r="A10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D12" si="1">D9*5</f>
@@ -1950,15 +2542,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" ht="15.6" spans="1:5">
       <c r="A11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="6">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
@@ -1968,15 +2560,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" ht="15.6" spans="1:5">
       <c r="A12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="6">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
@@ -1986,9 +2578,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" ht="15.6" spans="1:5">
       <c r="A13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2003,9 +2595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" ht="15.6" spans="1:5">
       <c r="A14" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
@@ -2021,9 +2613,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" ht="15.6" spans="1:5">
       <c r="A15" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -2039,9 +2631,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" ht="15.6" spans="1:5">
       <c r="A16" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="6">
         <v>4</v>
@@ -2057,9 +2649,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" ht="15.6" spans="1:5">
       <c r="A17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="6">
         <v>5</v>
@@ -2075,9 +2667,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" ht="15.6" spans="1:5">
       <c r="A18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2092,9 +2684,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" ht="15.6" spans="1:5">
       <c r="A19" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="6">
         <v>2</v>
@@ -2110,9 +2702,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" ht="15.6" spans="1:5">
       <c r="A20" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="6">
         <v>3</v>
@@ -2128,9 +2720,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" ht="15.6" spans="1:5">
       <c r="A21" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2145,9 +2737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" ht="15.6" spans="1:5">
       <c r="A22" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="6">
         <v>2</v>
@@ -2163,9 +2755,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" ht="15.6" spans="1:5">
       <c r="A23" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -2181,15 +2773,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" ht="15.6" spans="1:5">
       <c r="A24" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="7">
         <v>50</v>
@@ -2198,15 +2790,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" ht="15.6" spans="1:5">
       <c r="A25" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="6">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7">
         <f>D24*6</f>
@@ -2216,15 +2808,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" ht="15.6" spans="1:5">
       <c r="A26" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="6">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" s="7">
         <f>D25*5</f>
@@ -2234,15 +2826,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" ht="15.6" spans="1:5">
       <c r="A27" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="7">
         <v>50</v>
@@ -2251,15 +2843,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" ht="15.6" spans="1:5">
       <c r="A28" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="6">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28" s="7">
         <f>D27*6</f>
@@ -2269,15 +2861,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" ht="15.6" spans="1:5">
       <c r="A29" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" s="7">
         <f>D28*5</f>
@@ -2287,15 +2879,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" ht="15.6" spans="1:5">
       <c r="A30" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30" s="7">
         <v>50</v>
@@ -2304,15 +2896,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" ht="15.6" spans="1:5">
       <c r="A31" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" s="7">
         <f>D30*6</f>
@@ -2322,15 +2914,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" ht="15.6" spans="1:5">
       <c r="A32" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="6">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" s="7">
         <f>D31*5</f>
@@ -2341,7 +2933,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/project/OtherAssets/Excle/A_Default/职员.xlsx
+++ b/project/OtherAssets/Excle/A_Default/职员.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="26115" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -259,12 +259,18 @@
     <t>12_20</t>
   </si>
   <si>
+    <t>cook2</t>
+  </si>
+  <si>
     <t>厨师3</t>
   </si>
   <si>
     <t>12_21</t>
   </si>
   <si>
+    <t>cook3</t>
+  </si>
+  <si>
     <t>蛋糕柜服务员</t>
   </si>
   <si>
@@ -277,6 +283,9 @@
     <t>12_14</t>
   </si>
   <si>
+    <t>pastry</t>
+  </si>
+  <si>
     <t>果汁机服务员</t>
   </si>
   <si>
@@ -289,6 +298,9 @@
     <t>12_11</t>
   </si>
   <si>
+    <t>juice</t>
+  </si>
+  <si>
     <t>吧台调酒师</t>
   </si>
   <si>
@@ -299,6 +311,9 @@
   </si>
   <si>
     <t>12_8</t>
+  </si>
+  <si>
+    <t>bar</t>
   </si>
   <si>
     <r>
@@ -568,12 +583,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,25 +608,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -621,16 +621,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,9 +636,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,9 +680,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,66 +690,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -750,6 +712,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,12 +766,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -778,49 +786,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,133 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,6 +995,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1002,6 +1019,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1009,30 +1041,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,16 +1063,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1075,145 +1083,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,16 +1254,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1611,23 +1619,23 @@
   <sheetPr/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.6296296296296" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.1296296296296" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.6296296296296" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.8796296296296" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.8796296296296" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.6333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.1333333333333" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.6333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.8833333333333" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.8833333333333" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.8796296296296" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.8833333333333" style="8" customWidth="1"/>
     <col min="10" max="10" width="33" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.1296296296296" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.1333333333333" style="8" customWidth="1"/>
     <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -1666,7 +1674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:11">
+    <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1701,7 +1709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:11">
+    <row r="3" ht="14.25" spans="1:11">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1736,7 +1744,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:11">
+    <row r="4" ht="14.25" spans="1:11">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1771,7 +1779,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:11">
+    <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:11">
+    <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>27</v>
@@ -1841,15 +1849,15 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:11">
+    <row r="7" ht="14.25" spans="1:11">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="8">
         <v>5</v>
@@ -1867,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>27</v>
@@ -1876,15 +1884,15 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:11">
+    <row r="8" ht="14.25" spans="1:11">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="8">
         <v>6</v>
@@ -1893,16 +1901,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>27</v>
@@ -1911,15 +1919,15 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:11">
+    <row r="9" ht="14.25" spans="1:11">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" s="8">
         <v>7</v>
@@ -1928,16 +1936,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>27</v>
@@ -1951,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8">
         <v>8</v>
@@ -1963,16 +1971,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>27</v>
@@ -1981,7 +1989,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:8">
+    <row r="11" ht="14.25" spans="1:8">
       <c r="A11" s="5"/>
       <c r="C11" s="14"/>
       <c r="G11" s="15"/>
@@ -2041,55 +2049,55 @@
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" ht="14.25" spans="1:9">
       <c r="A20" s="16"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="E20" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" ht="14.25" spans="1:9">
       <c r="A21" s="16"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="E21" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" ht="14.25" spans="1:9">
       <c r="A22" s="16"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="E22" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" ht="28.8" spans="1:9">
+    <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="16"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="E23" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" ht="14.25" spans="1:9">
       <c r="A24" s="16"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2098,7 +2106,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" ht="14.25" spans="1:9">
       <c r="A25" s="16"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2351,56 +2359,56 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="14.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="14.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="40.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="37.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="40.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="37.3833333333333" customWidth="1"/>
     <col min="6" max="6" width="58.75" customWidth="1"/>
-    <col min="7" max="7" width="27.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="27.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:5">
+    <row r="1" ht="27" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2408,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" s="7">
         <v>50</v>
@@ -2417,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2425,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D4" s="7">
         <f>D3*6</f>
@@ -2435,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D7" si="0">D4*5</f>
@@ -2453,7 +2461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2461,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -2471,7 +2479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -2479,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -2489,7 +2497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
         <v>50</v>
@@ -2506,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -2514,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D9" s="7">
         <f>D8*6</f>
@@ -2524,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -2532,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D12" si="1">D9*5</f>
@@ -2542,7 +2550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
@@ -2560,7 +2568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
@@ -2578,7 +2586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:5">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -2595,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:5">
+    <row r="15" ht="14.25" spans="1:5">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -2631,7 +2639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:5">
+    <row r="16" ht="14.25" spans="1:5">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -2649,7 +2657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:5">
+    <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:5">
+    <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:5">
+    <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -2702,7 +2710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:5">
+    <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:5">
+    <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:5">
+    <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="5">
         <v>5</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:5">
+    <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="5">
         <v>5</v>
       </c>
@@ -2773,7 +2781,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:5">
+    <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="5">
         <v>6</v>
       </c>
@@ -2781,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D24" s="7">
         <v>50</v>
@@ -2790,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:5">
+    <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="5">
         <v>6</v>
       </c>
@@ -2798,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D25" s="7">
         <f>D24*6</f>
@@ -2808,7 +2816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:5">
+    <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="5">
         <v>6</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7">
         <f>D25*5</f>
@@ -2826,7 +2834,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:5">
+    <row r="27" ht="14.25" spans="1:5">
       <c r="A27" s="5">
         <v>7</v>
       </c>
@@ -2834,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7">
         <v>50</v>
@@ -2843,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:5">
+    <row r="28" ht="14.25" spans="1:5">
       <c r="A28" s="5">
         <v>7</v>
       </c>
@@ -2851,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D28" s="7">
         <f>D27*6</f>
@@ -2861,7 +2869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:5">
+    <row r="29" ht="14.25" spans="1:5">
       <c r="A29" s="5">
         <v>7</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D29" s="7">
         <f>D28*5</f>
@@ -2879,7 +2887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:5">
+    <row r="30" ht="14.25" spans="1:5">
       <c r="A30" s="5">
         <v>8</v>
       </c>
@@ -2887,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D30" s="7">
         <v>50</v>
@@ -2896,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:5">
+    <row r="31" ht="14.25" spans="1:5">
       <c r="A31" s="5">
         <v>8</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D31" s="7">
         <f>D30*6</f>
@@ -2914,7 +2922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:5">
+    <row r="32" ht="14.25" spans="1:5">
       <c r="A32" s="5">
         <v>8</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D32" s="7">
         <f>D31*5</f>
